--- a/doc/バグ&障害管理/インタープリタ/テスト/テスト一覧.xlsx
+++ b/doc/バグ&障害管理/インタープリタ/テスト/テスト一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="10488" windowHeight="8460"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="10485" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="0.0.0" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -132,6 +132,20 @@
   </si>
   <si>
     <t>T000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver0.1.0より対応</t>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,12 +170,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,11 +198,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,52 +491,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -523,11 +553,20 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
